--- a/scripts/analysis/stats.xlsx
+++ b/scripts/analysis/stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSpen\Home\Code\cpp\capstone\scripts\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01788AEF-1988-4E08-997A-2F2C49E120E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8052F-2964-4E19-B235-D45802E1C9A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>purePursuit/pp10path1</t>
   </si>
@@ -597,6 +597,60 @@
   </si>
   <si>
     <t>followThePast/ftp25.45path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs25.12.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs25.14.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs25.16.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs25.20.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs25.22.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs25.24.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs28.12.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs28.14.8.path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs28.22.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs28.24.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs30.12.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs30.14.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs30.16.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs30.24.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs35.12.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs35.14.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs35.16.8path1</t>
+  </si>
+  <si>
+    <t>ramsete/rs35.24.8path1</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1781,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$104:$H$108</c:f>
+              <c:f>stats!$H$122:$H$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1751,7 +1805,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$104:$E$108</c:f>
+              <c:f>stats!$E$122:$E$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1788,7 +1842,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$109:$H$117</c:f>
+              <c:f>stats!$H$127:$H$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1824,7 +1878,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$109:$E$117</c:f>
+              <c:f>stats!$E$127:$E$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1873,7 +1927,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$118:$H$122</c:f>
+              <c:f>stats!$H$136:$H$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1897,7 +1951,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$118:$E$122</c:f>
+              <c:f>stats!$E$136:$E$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1934,7 +1988,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$124:$H$128</c:f>
+              <c:f>stats!$H$142:$H$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1958,7 +2012,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$124:$E$128</c:f>
+              <c:f>stats!$E$142:$E$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2292,7 +2346,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$130:$H$135</c:f>
+              <c:f>stats!$H$148:$H$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2319,7 +2373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$130:$D$135</c:f>
+              <c:f>stats!$D$148:$D$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2359,7 +2413,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$137:$H$142</c:f>
+              <c:f>stats!$H$155:$H$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2386,7 +2440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$137:$D$142</c:f>
+              <c:f>stats!$D$155:$D$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2426,7 +2480,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$143:$H$146</c:f>
+              <c:f>stats!$H$161:$H$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2447,7 +2501,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$143:$D$146</c:f>
+              <c:f>stats!$D$161:$D$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2481,7 +2535,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$147:$H$152</c:f>
+              <c:f>stats!$H$165:$H$170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2508,7 +2562,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$147:$D$152</c:f>
+              <c:f>stats!$D$165:$D$170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2845,7 +2899,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$130:$H$135</c:f>
+              <c:f>stats!$H$148:$H$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2872,7 +2926,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$130:$E$135</c:f>
+              <c:f>stats!$E$148:$E$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2912,7 +2966,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$137:$H$142</c:f>
+              <c:f>stats!$H$155:$H$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2939,7 +2993,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$137:$E$142</c:f>
+              <c:f>stats!$E$155:$E$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2979,7 +3033,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$143:$H$146</c:f>
+              <c:f>stats!$H$161:$H$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3000,7 +3054,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$143:$E$146</c:f>
+              <c:f>stats!$E$161:$E$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3034,7 +3088,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$147:$H$152</c:f>
+              <c:f>stats!$H$165:$H$170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3061,7 +3115,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$147:$E$152</c:f>
+              <c:f>stats!$E$165:$E$170</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3398,7 +3452,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$153:$H$157</c:f>
+              <c:f>stats!$H$171:$H$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3422,7 +3476,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$153:$D$157</c:f>
+              <c:f>stats!$D$171:$D$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3459,7 +3513,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$158:$H$165</c:f>
+              <c:f>stats!$H$176:$H$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3492,7 +3546,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$158:$D$165</c:f>
+              <c:f>stats!$D$176:$D$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3538,7 +3592,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$169:$H$180</c:f>
+              <c:f>stats!$H$187:$H$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3583,7 +3637,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$169:$D$180</c:f>
+              <c:f>stats!$D$187:$D$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3641,7 +3695,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$182:$H$189</c:f>
+              <c:f>stats!$H$200:$H$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3674,7 +3728,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$182:$D$189</c:f>
+              <c:f>stats!$D$200:$D$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4017,7 +4071,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$153:$H$157</c:f>
+              <c:f>stats!$H$171:$H$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4041,7 +4095,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$153:$E$157</c:f>
+              <c:f>stats!$E$171:$E$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4078,7 +4132,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$158:$H$165</c:f>
+              <c:f>stats!$H$176:$H$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4111,7 +4165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$158:$E$165</c:f>
+              <c:f>stats!$E$176:$E$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4157,7 +4211,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$169:$H$180</c:f>
+              <c:f>stats!$H$187:$H$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4202,7 +4256,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$169:$E$180</c:f>
+              <c:f>stats!$E$187:$E$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4260,7 +4314,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$182:$H$189</c:f>
+              <c:f>stats!$H$200:$H$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4293,7 +4347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$182:$E$189</c:f>
+              <c:f>stats!$E$200:$E$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4632,40 +4686,64 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>zeta=0.28</c:v>
+            <c:v>zeta=0.25</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>(stats!$H$74,stats!$H$79:$H$80)</c:f>
+              <c:f>stats!$H$115:$H$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.6000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>1.8E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(stats!$D$74,stats!$D$79:$D$80)</c:f>
+              <c:f>stats!$D$115:$D$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.3668100299999999</c:v>
+                  <c:v>5.1237420069368804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2135176970000003</c:v>
+                  <c:v>4.8508750324007401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8404945899999996</c:v>
+                  <c:v>5.2016114629772598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0994950186500496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7396554719649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4488759394377899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9373284771835504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4673,48 +4751,72 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B549-40AE-AFF1-90653E3C4FB3}"/>
+              <c16:uniqueId val="{00000003-1B26-408E-B8BD-B78535CFED77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>zeta=0.3</c:v>
+            <c:v>zeta=0.28</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>(stats!$H$86,stats!$H$92:$H$93)</c:f>
+              <c:f>(stats!$H$73:$H$75,stats!$H$80:$H$83)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.8E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(stats!$D$86,stats!$D$92:$D$93)</c:f>
+              <c:f>(stats!$D$73:$D$75,stats!$D$80:$D$83)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.3144308240000004</c:v>
+                  <c:v>4.5414110212597398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0231964360000001</c:v>
+                  <c:v>4.7399641772374101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2191212560000002</c:v>
+                  <c:v>4.3668100298678096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2135176974124402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8404945898584302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.64241197147392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8369694075950296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,48 +4824,72 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B549-40AE-AFF1-90653E3C4FB3}"/>
+              <c16:uniqueId val="{00000007-1B26-408E-B8BD-B78535CFED77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>zeta=0.35</c:v>
+            <c:v>zeta=0.30</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$94:$H$96</c:f>
+              <c:f>(stats!$H$84,stats!$H$85,stats!$H$86,stats!$H$93,stats!$H$99,stats!$H$100,stats!$H$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.8E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$94:$D$96</c:f>
+              <c:f>(stats!$D$84,stats!$D$85,stats!$D$86,stats!$D$93,stats!$D$99,stats!$D$100,stats!$D$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.1341358159999997</c:v>
+                  <c:v>4.5205782695227397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5754112840000003</c:v>
+                  <c:v>4.6532372755624296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5490046780000002</c:v>
+                  <c:v>4.3888038897001902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3144308243624296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0231964362072201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2191212556657902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5719562826053197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4771,7 +4897,80 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B549-40AE-AFF1-90653E3C4FB3}"/>
+              <c16:uniqueId val="{00000005-1B26-408E-B8BD-B78535CFED77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>zeta=0.35</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stats!$H$101:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stats!$D$101:$D$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.4530187766567702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0713470487976702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3585253625295701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1341358159921802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.57541128394982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5490046783055096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6334636130272697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1B26-408E-B8BD-B78535CFED77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4790,7 +4989,7 @@
         <c:axId val="688736944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.5000000000000005E-3"/>
+          <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5078,40 +5277,64 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>zeta=0.28</c:v>
+            <c:v>zeta=0.25</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>(stats!$H$74,stats!$H$79:$H$80)</c:f>
+              <c:f>stats!$H$115:$H$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.6000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>1.8E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(stats!$E$74,stats!$E$79:$E$80)</c:f>
+              <c:f>stats!$E$115:$E$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>13.648999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.398999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13.499000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>13.449</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.648999999999999</c:v>
+                <c:pt idx="4">
+                  <c:v>13.449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,48 +5342,72 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B549-40AE-AFF1-90653E3C4FB3}"/>
+              <c16:uniqueId val="{00000000-72ED-4544-817D-FDB9931AF22A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>zeta=0.3</c:v>
+            <c:v>zeta=0.28</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>(stats!$H$86,stats!$H$92:$H$93)</c:f>
+              <c:f>(stats!$H$73:$H$75,stats!$H$80:$H$83)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.8E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(stats!$E$86,stats!$E$92:$E$93)</c:f>
+              <c:f>(stats!$E$73:$E$75,stats!$E$80:$E$83)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.599</c:v>
+                  <c:v>13.249000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.599</c:v>
+                  <c:v>13.499000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.499000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.648999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13.548999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.898999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5168,48 +5415,72 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B549-40AE-AFF1-90653E3C4FB3}"/>
+              <c16:uniqueId val="{00000001-72ED-4544-817D-FDB9931AF22A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>zeta=0.35</c:v>
+            <c:v>zeta=0.30</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$94:$H$96</c:f>
+              <c:f>(stats!$H$84,stats!$H$85,stats!$H$86,stats!$H$93,stats!$H$99,stats!$H$100,stats!$H$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.8E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$E$94:$E$96</c:f>
+              <c:f>(stats!$E$84,stats!$E$85,stats!$E$86,stats!$E$93,stats!$E$99,stats!$E$100,stats!$E$87)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.499000000000001</c:v>
+                  <c:v>13.648999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.798999999999999</c:v>
+                  <c:v>13.648999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>13.548999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>13.599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.548999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.048999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5217,7 +5488,80 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B549-40AE-AFF1-90653E3C4FB3}"/>
+              <c16:uniqueId val="{00000002-72ED-4544-817D-FDB9931AF22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>zeta=0.35</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stats!$H$101:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stats!$E$101:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.499000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.798999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-72ED-4544-817D-FDB9931AF22A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5236,7 +5580,7 @@
         <c:axId val="688736944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.5000000000000005E-3"/>
+          <c:min val="1.0000000000000002E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5343,7 +5687,6 @@
         <c:axId val="585314480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5382,7 +5725,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Duration of path (s)</a:t>
+                  <a:t>RMSE (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9186,7 +9529,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$104:$H$108</c:f>
+              <c:f>stats!$H$122:$H$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9210,7 +9553,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$104:$D$108</c:f>
+              <c:f>stats!$D$122:$D$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9247,7 +9590,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$109:$H$117</c:f>
+              <c:f>stats!$H$127:$H$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9283,7 +9626,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$109:$D$117</c:f>
+              <c:f>stats!$D$127:$D$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9332,7 +9675,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$118:$H$122</c:f>
+              <c:f>stats!$H$136:$H$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9356,7 +9699,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$118:$D$122</c:f>
+              <c:f>stats!$D$136:$D$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9393,7 +9736,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>stats!$H$124:$H$128</c:f>
+              <c:f>stats!$H$142:$H$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9417,7 +9760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stats!$D$124:$D$128</c:f>
+              <c:f>stats!$D$142:$D$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11107,13 +11450,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>32658</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11145,13 +11488,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11183,13 +11526,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11221,13 +11564,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>321129</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>4082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>80282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11259,13 +11602,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>307522</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>5443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11297,13 +11640,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11334,15 +11677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>287111</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>20411</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>594632</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>96611</xdr:rowOff>
+      <xdr:colOff>336097</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11372,22 +11715,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>333377</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
+        <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AFDF03-8FD3-4916-BF3E-307E74C9095C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD85F8A-6578-4B34-8800-E6BA273F3332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11707,10 +12050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA189"/>
+  <dimension ref="A1:AA207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11858,7 +12201,7 @@
         <v>31</v>
       </c>
       <c r="AA7">
-        <f>MIN(D1:D200)</f>
+        <f>MIN(D1:D218)</f>
         <v>3.1976105210000001</v>
       </c>
     </row>
@@ -13166,46 +13509,40 @@
       </c>
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.14951307999999999</v>
-      </c>
-      <c r="C67" s="2">
-        <v>6.9379115919999998</v>
-      </c>
-      <c r="D67" s="2">
-        <v>6.9395224200000003</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="B67">
+        <v>0.14951307954732401</v>
+      </c>
+      <c r="C67">
+        <v>6.9379115915906002</v>
+      </c>
+      <c r="D67">
+        <v>6.9395224197118202</v>
+      </c>
+      <c r="E67">
         <v>14.048999999999999</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="I67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
-        <v>-2.5029294599999998</v>
-      </c>
-      <c r="C68" s="2">
-        <v>6.994130545</v>
-      </c>
-      <c r="D68" s="2">
-        <v>7.4284936540000004</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="B68">
+        <v>-2.50292946045345</v>
+      </c>
+      <c r="C68">
+        <v>6.9941305452840998</v>
+      </c>
+      <c r="D68">
+        <v>7.4284936540648596</v>
+      </c>
+      <c r="E68">
         <v>14.298999999999999</v>
       </c>
       <c r="F68" s="2"/>
@@ -13219,20 +13556,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
-        <v>-2.757918165</v>
-      </c>
-      <c r="C69" s="2">
-        <v>8.1104309990000001</v>
-      </c>
-      <c r="D69" s="2">
-        <v>8.5665164209999993</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="B69">
+        <v>-2.7579181649634301</v>
+      </c>
+      <c r="C69">
+        <v>8.1104309990379608</v>
+      </c>
+      <c r="D69">
+        <v>8.5665164212059501</v>
+      </c>
+      <c r="E69">
         <v>14.148999999999999</v>
       </c>
       <c r="F69" s="2"/>
@@ -13246,20 +13583,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
-        <v>-1.193204795</v>
-      </c>
-      <c r="C70" s="2">
-        <v>6.3882842770000003</v>
-      </c>
-      <c r="D70" s="2">
-        <v>6.4987624730000002</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="B70">
+        <v>-1.1932047945339901</v>
+      </c>
+      <c r="C70">
+        <v>6.3882842770900803</v>
+      </c>
+      <c r="D70">
+        <v>6.4987624734725697</v>
+      </c>
+      <c r="E70">
         <v>13.648999999999999</v>
       </c>
       <c r="F70" s="2"/>
@@ -13273,20 +13610,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.134638643</v>
-      </c>
-      <c r="C71" s="2">
-        <v>5.6247626520000003</v>
-      </c>
-      <c r="D71" s="2">
-        <v>5.6263738290000003</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="B71">
+        <v>0.134638643497517</v>
+      </c>
+      <c r="C71">
+        <v>5.6247626523944003</v>
+      </c>
+      <c r="D71">
+        <v>5.6263738286834197</v>
+      </c>
+      <c r="E71">
         <v>13.548999999999999</v>
       </c>
       <c r="F71" s="2"/>
@@ -13300,25 +13637,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2">
-        <v>0.50859989800000005</v>
-      </c>
-      <c r="C72" s="2">
-        <v>4.067823196</v>
-      </c>
-      <c r="D72" s="2">
-        <v>4.0994950189999999</v>
-      </c>
-      <c r="E72" s="2">
-        <v>13.449</v>
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>0.59440693483292795</v>
+      </c>
+      <c r="C72">
+        <v>4.2885663512338796</v>
+      </c>
+      <c r="D72">
+        <v>4.32956359846035</v>
+      </c>
+      <c r="E72">
+        <v>13.349</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="H72" s="2">
         <v>1.8E-3</v>
@@ -13327,47 +13664,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0.59440693499999997</v>
-      </c>
-      <c r="C73" s="2">
-        <v>4.2885663510000001</v>
-      </c>
-      <c r="D73" s="2">
-        <v>4.329563598</v>
-      </c>
-      <c r="E73" s="2">
-        <v>13.349</v>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73">
+        <v>0.88296141386226001</v>
+      </c>
+      <c r="C73">
+        <v>4.4547495109882203</v>
+      </c>
+      <c r="D73">
+        <v>4.5414110212597398</v>
+      </c>
+      <c r="E73">
+        <v>13.249000000000001</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H73" s="2">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I73" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0.56077321199999997</v>
-      </c>
-      <c r="C74" s="2">
-        <v>4.3306539050000001</v>
-      </c>
-      <c r="D74" s="2">
-        <v>4.3668100299999999</v>
-      </c>
-      <c r="E74" s="2">
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74">
+        <v>0.82575221874928295</v>
+      </c>
+      <c r="C74">
+        <v>4.6674825842979404</v>
+      </c>
+      <c r="D74">
+        <v>4.7399641772374101</v>
+      </c>
+      <c r="E74">
         <v>13.499000000000001</v>
       </c>
       <c r="F74" s="2"/>
@@ -13375,26 +13712,26 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H74" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I74" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2">
-        <v>-8.5802529999999995E-3</v>
-      </c>
-      <c r="C75" s="2">
-        <v>4.3044271590000003</v>
-      </c>
-      <c r="D75" s="2">
-        <v>4.304435711</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.560773211518795</v>
+      </c>
+      <c r="C75">
+        <v>4.3306539046888703</v>
+      </c>
+      <c r="D75">
+        <v>4.3668100298678096</v>
+      </c>
+      <c r="E75">
         <v>13.499000000000001</v>
       </c>
       <c r="F75" s="2"/>
@@ -13402,1568 +13739,1514 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H75" s="2">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="I75" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>-8.5802526266208594E-3</v>
+      </c>
+      <c r="C76">
+        <v>4.3044271593263304</v>
+      </c>
+      <c r="D76">
+        <v>4.3044357110637996</v>
+      </c>
+      <c r="E76">
+        <v>13.499000000000001</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
-        <v>0.31185132599999998</v>
-      </c>
-      <c r="C76" s="2">
-        <v>4.2608776229999998</v>
-      </c>
-      <c r="D76" s="2">
-        <v>4.2722744949999996</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="B77">
+        <v>0.31185132552042899</v>
+      </c>
+      <c r="C77">
+        <v>4.2608776225432301</v>
+      </c>
+      <c r="D77">
+        <v>4.2722744953383502</v>
+      </c>
+      <c r="E77">
         <v>13.249000000000001</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H76" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I76" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
-        <v>0.65600717900000005</v>
-      </c>
-      <c r="C77" s="2">
-        <v>4.3504046049999996</v>
-      </c>
-      <c r="D77" s="2">
-        <v>4.3995869860000001</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="B78">
+        <v>0.65600717894677296</v>
+      </c>
+      <c r="C78">
+        <v>4.3504046047699401</v>
+      </c>
+      <c r="D78">
+        <v>4.3995869856195799</v>
+      </c>
+      <c r="E78">
         <v>12.898</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H77" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I77" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.62663189399999997</v>
-      </c>
-      <c r="C78" s="2">
-        <v>5.2992186170000002</v>
-      </c>
-      <c r="D78" s="2">
-        <v>5.336139567</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="B79">
+        <v>0.62663189362898597</v>
+      </c>
+      <c r="C79">
+        <v>5.2992186172268196</v>
+      </c>
+      <c r="D79">
+        <v>5.3361395674472796</v>
+      </c>
+      <c r="E79">
         <v>13.949</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I78" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
-        <v>0.50126359200000004</v>
-      </c>
-      <c r="C79" s="2">
-        <v>4.1835948890000001</v>
-      </c>
-      <c r="D79" s="2">
-        <v>4.2135176970000003</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="B80">
+        <v>0.50126359201416104</v>
+      </c>
+      <c r="C80">
+        <v>4.1835948892942501</v>
+      </c>
+      <c r="D80">
+        <v>4.2135176974124402</v>
+      </c>
+      <c r="E80">
         <v>13.449</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H79" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I79" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2">
-        <v>0.463797079</v>
-      </c>
-      <c r="C80" s="2">
-        <v>4.8182237539999999</v>
-      </c>
-      <c r="D80" s="2">
-        <v>4.8404945899999996</v>
-      </c>
-      <c r="E80" s="2">
-        <v>13.648999999999999</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2">
         <v>0.28000000000000003</v>
       </c>
       <c r="H80" s="2">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I80" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2">
-        <v>0.80557613699999997</v>
-      </c>
-      <c r="C81" s="2">
-        <v>4.5466801070000002</v>
-      </c>
-      <c r="D81" s="2">
-        <v>4.6174942239999996</v>
-      </c>
-      <c r="E81" s="2">
-        <v>12.548999999999999</v>
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.46379707923601898</v>
+      </c>
+      <c r="C81">
+        <v>4.8182237540135997</v>
+      </c>
+      <c r="D81">
+        <v>4.8404945898584302</v>
+      </c>
+      <c r="E81">
+        <v>13.648999999999999</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H81" s="2">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I81" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2">
-        <v>0.29906112800000001</v>
-      </c>
-      <c r="C82" s="2">
-        <v>4.9986366450000004</v>
-      </c>
-      <c r="D82" s="2">
-        <v>5.0075748490000001</v>
-      </c>
-      <c r="E82" s="2">
-        <v>13.898999999999999</v>
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82">
+        <v>0.49517421922588101</v>
+      </c>
+      <c r="C82">
+        <v>4.6159280112993999</v>
+      </c>
+      <c r="D82">
+        <v>4.64241197147392</v>
+      </c>
+      <c r="E82">
+        <v>13.548999999999999</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H82" s="2">
-        <v>1E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I82" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2">
-        <v>0.68047470200000004</v>
-      </c>
-      <c r="C83" s="2">
-        <v>4.4346735759999998</v>
-      </c>
-      <c r="D83" s="2">
-        <v>4.4865772640000001</v>
-      </c>
-      <c r="E83" s="2">
-        <v>13.199</v>
+      <c r="A83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83">
+        <v>0.31473890828489698</v>
+      </c>
+      <c r="C83">
+        <v>4.8267186026970599</v>
+      </c>
+      <c r="D83">
+        <v>4.8369694075950296</v>
+      </c>
+      <c r="E83">
+        <v>13.898999999999999</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H83" s="2">
-        <v>1E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I83" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2">
-        <v>0.438748955</v>
-      </c>
-      <c r="C84" s="2">
-        <v>4.5263279250000004</v>
-      </c>
-      <c r="D84" s="2">
-        <v>4.5475427570000004</v>
-      </c>
-      <c r="E84" s="2">
-        <v>13.497999999999999</v>
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84">
+        <v>0.450905676409802</v>
+      </c>
+      <c r="C84">
+        <v>4.4980342330692302</v>
+      </c>
+      <c r="D84">
+        <v>4.5205782695227397</v>
+      </c>
+      <c r="E84">
+        <v>13.648999999999999</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2">
         <v>0.3</v>
       </c>
       <c r="H84" s="2">
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I84" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2">
-        <v>0.62014871800000004</v>
-      </c>
-      <c r="C85" s="2">
-        <v>5.190894793</v>
-      </c>
-      <c r="D85" s="2">
-        <v>5.2278076840000001</v>
-      </c>
-      <c r="E85" s="2">
-        <v>14.048999999999999</v>
+      <c r="A85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85">
+        <v>0.64516251677923697</v>
+      </c>
+      <c r="C85">
+        <v>4.6082949633922903</v>
+      </c>
+      <c r="D85">
+        <v>4.6532372755624296</v>
+      </c>
+      <c r="E85">
+        <v>13.648999999999999</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2">
         <v>0.3</v>
       </c>
       <c r="H85" s="2">
-        <v>1.8E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I85" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2">
-        <v>0.20772059900000001</v>
-      </c>
-      <c r="C86" s="2">
-        <v>4.3094275130000002</v>
-      </c>
-      <c r="D86" s="2">
-        <v>4.3144308240000004</v>
-      </c>
-      <c r="E86" s="2">
-        <v>13.599</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86">
+        <v>0.26201726245486301</v>
+      </c>
+      <c r="C86">
+        <v>4.3809755233764101</v>
+      </c>
+      <c r="D86">
+        <v>4.3888038897001902</v>
+      </c>
+      <c r="E86">
+        <v>13.548999999999999</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2">
         <v>0.3</v>
       </c>
       <c r="H86" s="2">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="I86" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2">
-        <v>0.385208677</v>
-      </c>
-      <c r="C87" s="2">
-        <v>4.2234956529999996</v>
-      </c>
-      <c r="D87" s="2">
-        <v>4.2410259669999997</v>
-      </c>
-      <c r="E87" s="2">
-        <v>12.749000000000001</v>
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87">
+        <v>4.8356388243776298E-2</v>
+      </c>
+      <c r="C87">
+        <v>4.5717005490047402</v>
+      </c>
+      <c r="D87">
+        <v>4.5719562826053197</v>
+      </c>
+      <c r="E87">
+        <v>14.048999999999999</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2">
         <v>0.3</v>
       </c>
       <c r="H87" s="2">
-        <v>2E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I87" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2">
-        <v>0.406489457</v>
-      </c>
-      <c r="C88" s="2">
-        <v>4.1700308990000003</v>
-      </c>
-      <c r="D88" s="2">
-        <v>4.1897961019999999</v>
-      </c>
-      <c r="E88" s="2">
-        <v>13.348000000000001</v>
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88">
+        <v>0.80557613679312901</v>
+      </c>
+      <c r="C88">
+        <v>4.5466801069759999</v>
+      </c>
+      <c r="D88">
+        <v>4.6174942238558199</v>
+      </c>
+      <c r="E88">
+        <v>12.548999999999999</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H88" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I88" s="2">
-        <v>12</v>
-      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2">
-        <v>0.122866248</v>
-      </c>
-      <c r="C89" s="2">
-        <v>4.1662060060000004</v>
-      </c>
-      <c r="D89" s="2">
-        <v>4.1680173470000002</v>
-      </c>
-      <c r="E89" s="2">
-        <v>13.449</v>
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89">
+        <v>0.29906112795437301</v>
+      </c>
+      <c r="C89">
+        <v>4.99863664466152</v>
+      </c>
+      <c r="D89">
+        <v>5.0075748485276099</v>
+      </c>
+      <c r="E89">
+        <v>13.898999999999999</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H89" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I89" s="2">
-        <v>14</v>
-      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="2">
-        <v>0.760798953</v>
-      </c>
-      <c r="C90" s="2">
-        <v>4.5337477740000001</v>
-      </c>
-      <c r="D90" s="2">
-        <v>4.5971386680000004</v>
-      </c>
-      <c r="E90" s="2">
-        <v>13.449</v>
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90">
+        <v>0.68047470190090098</v>
+      </c>
+      <c r="C90">
+        <v>4.4346735761367597</v>
+      </c>
+      <c r="D90">
+        <v>4.4865772641082096</v>
+      </c>
+      <c r="E90">
+        <v>13.199</v>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H90" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I90" s="2">
-        <v>5</v>
-      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="2">
-        <v>-8.6841582E-2</v>
-      </c>
-      <c r="C91" s="2">
-        <v>4.5012516339999999</v>
-      </c>
-      <c r="D91" s="2">
-        <v>4.5020892630000002</v>
-      </c>
-      <c r="E91" s="2">
-        <v>13.798999999999999</v>
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91">
+        <v>0.43874895467741598</v>
+      </c>
+      <c r="C91">
+        <v>4.5263279250107598</v>
+      </c>
+      <c r="D91">
+        <v>4.5475427573539902</v>
+      </c>
+      <c r="E91">
+        <v>13.497999999999999</v>
       </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H91" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I91" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0.34547285500000002</v>
-      </c>
-      <c r="C92" s="2">
-        <v>4.0083360729999997</v>
-      </c>
-      <c r="D92" s="2">
-        <v>4.0231964360000001</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92">
+        <v>0.62014871783800496</v>
+      </c>
+      <c r="C92">
+        <v>5.1908947926644302</v>
+      </c>
+      <c r="D92">
+        <v>5.2278076839863497</v>
+      </c>
+      <c r="E92">
+        <v>14.048999999999999</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93">
+        <v>0.20772059922959199</v>
+      </c>
+      <c r="C93">
+        <v>4.3094275131233299</v>
+      </c>
+      <c r="D93">
+        <v>4.3144308243624296</v>
+      </c>
+      <c r="E93">
         <v>13.599</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H92" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I92" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2">
-        <v>0.474726759</v>
-      </c>
-      <c r="C93" s="2">
-        <v>4.19232855</v>
-      </c>
-      <c r="D93" s="2">
-        <v>4.2191212560000002</v>
-      </c>
-      <c r="E93" s="2">
-        <v>13.548999999999999</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2">
         <v>0.3</v>
       </c>
       <c r="H93" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I93" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0.222698649</v>
-      </c>
-      <c r="C94" s="2">
-        <v>4.1281332649999998</v>
-      </c>
-      <c r="D94" s="2">
-        <v>4.1341358159999997</v>
-      </c>
-      <c r="E94" s="2">
-        <v>13.499000000000001</v>
+    <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94">
+        <v>0.38520867746876197</v>
+      </c>
+      <c r="C94">
+        <v>4.2234956527226899</v>
+      </c>
+      <c r="D94">
+        <v>4.2410259671174799</v>
+      </c>
+      <c r="E94">
+        <v>12.749000000000001</v>
       </c>
       <c r="F94" s="2"/>
-      <c r="G94" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="I94" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2">
-        <v>-0.121031864</v>
-      </c>
-      <c r="C95" s="2">
-        <v>4.5738101960000002</v>
-      </c>
-      <c r="D95" s="2">
-        <v>4.5754112840000003</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95">
+        <v>0.40648945697271399</v>
+      </c>
+      <c r="C95">
+        <v>4.1700308990503698</v>
+      </c>
+      <c r="D95">
+        <v>4.1897961021587697</v>
+      </c>
+      <c r="E95">
+        <v>13.348000000000001</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96">
+        <v>0.122866248385242</v>
+      </c>
+      <c r="C96">
+        <v>4.16620600629747</v>
+      </c>
+      <c r="D96">
+        <v>4.1680173466411299</v>
+      </c>
+      <c r="E96">
+        <v>13.449</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97">
+        <v>0.76079895319062396</v>
+      </c>
+      <c r="C97">
+        <v>4.5337477744291101</v>
+      </c>
+      <c r="D97">
+        <v>4.5971386676188999</v>
+      </c>
+      <c r="E97">
+        <v>13.449</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98">
+        <v>-8.6841582110674803E-2</v>
+      </c>
+      <c r="C98">
+        <v>4.5012516336459596</v>
+      </c>
+      <c r="D98">
+        <v>4.50208926275167</v>
+      </c>
+      <c r="E98">
         <v>13.798999999999999</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="H95" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="I95" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="2">
-        <v>0.51172414899999996</v>
-      </c>
-      <c r="C96" s="2">
-        <v>4.5201307460000004</v>
-      </c>
-      <c r="D96" s="2">
-        <v>4.5490046780000002</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99">
+        <v>0.34547285500267</v>
+      </c>
+      <c r="C99">
+        <v>4.0083360725825896</v>
+      </c>
+      <c r="D99">
+        <v>4.0231964362072201</v>
+      </c>
+      <c r="E99">
         <v>13.599</v>
-      </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="H96" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="I96" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0.90366994</v>
-      </c>
-      <c r="C97" s="2">
-        <v>5.9480626599999997</v>
-      </c>
-      <c r="D97" s="2">
-        <v>6.0163168770000004</v>
-      </c>
-      <c r="E97" s="2">
-        <v>14.148999999999999</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H97" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="I97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="2">
-        <v>-9.4813367470000003</v>
-      </c>
-      <c r="C98" s="2">
-        <v>18.204106939999999</v>
-      </c>
-      <c r="D98" s="2">
-        <v>20.525234619999999</v>
-      </c>
-      <c r="E98" s="2">
-        <v>13.999000000000001</v>
-      </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H98" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="I98" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0.863908122</v>
-      </c>
-      <c r="C99" s="2">
-        <v>4.6322171499999998</v>
-      </c>
-      <c r="D99" s="2">
-        <v>4.7120879630000001</v>
-      </c>
-      <c r="E99" s="2">
-        <v>12.749000000000001</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H99" s="2">
         <v>2E-3</v>
       </c>
       <c r="I99" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2">
-        <v>0.33949150099999997</v>
-      </c>
-      <c r="C100" s="2">
-        <v>4.9682778389999998</v>
-      </c>
-      <c r="D100" s="2">
-        <v>4.9798633680000002</v>
-      </c>
-      <c r="E100" s="2">
-        <v>13.648999999999999</v>
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100">
+        <v>0.474726759170088</v>
+      </c>
+      <c r="C100">
+        <v>4.1923285503570398</v>
+      </c>
+      <c r="D100">
+        <v>4.2191212556657902</v>
+      </c>
+      <c r="E100">
+        <v>13.548999999999999</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H100" s="2">
-        <v>2E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="I100" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0.61154579099999995</v>
-      </c>
-      <c r="C101" s="2">
-        <v>9.8050355939999996</v>
-      </c>
-      <c r="D101" s="2">
-        <v>9.8240883169999993</v>
-      </c>
-      <c r="E101" s="2">
-        <v>11.599</v>
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101">
+        <v>-0.1212633852156</v>
+      </c>
+      <c r="C101">
+        <v>4.4513673648288998</v>
+      </c>
+      <c r="D101">
+        <v>4.4530187766567702</v>
+      </c>
+      <c r="E101">
+        <v>14.099</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="H101" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I101" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2">
-        <v>0.32477804500000002</v>
-      </c>
-      <c r="C102" s="2">
-        <v>5.5462394579999996</v>
-      </c>
-      <c r="D102" s="2">
-        <v>5.5557405360000001</v>
-      </c>
-      <c r="E102" s="2">
-        <v>13.249000000000001</v>
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102">
+        <v>-0.147172380119935</v>
+      </c>
+      <c r="C102">
+        <v>4.0686861616845498</v>
+      </c>
+      <c r="D102">
+        <v>4.0713470487976702</v>
+      </c>
+      <c r="E102">
+        <v>14.048999999999999</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="H102" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I102" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1.4123575880000001</v>
-      </c>
-      <c r="C103" s="2">
-        <v>6.744314352</v>
-      </c>
-      <c r="D103" s="2">
-        <v>6.8906117309999999</v>
-      </c>
-      <c r="E103" s="2">
-        <v>14.349</v>
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103">
+        <v>-0.41237062404702302</v>
+      </c>
+      <c r="C103">
+        <v>4.3389738192614802</v>
+      </c>
+      <c r="D103">
+        <v>4.3585253625295701</v>
+      </c>
+      <c r="E103">
+        <v>14.199</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="H103" s="2">
-        <v>1E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="I103" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104">
+        <v>0.22269864928337699</v>
+      </c>
+      <c r="C104">
+        <v>4.1281332653726999</v>
+      </c>
+      <c r="D104">
+        <v>4.1341358159921802</v>
+      </c>
+      <c r="E104">
+        <v>13.499000000000001</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H104" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I104" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105">
+        <v>-0.12103186404472201</v>
+      </c>
+      <c r="C105">
+        <v>4.5738101955788704</v>
+      </c>
+      <c r="D105">
+        <v>4.57541128394982</v>
+      </c>
+      <c r="E105">
+        <v>13.798999999999999</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H105" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I105" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106">
+        <v>0.511724149253311</v>
+      </c>
+      <c r="C106">
+        <v>4.5201307457103903</v>
+      </c>
+      <c r="D106">
+        <v>4.5490046783055096</v>
+      </c>
+      <c r="E106">
+        <v>13.599</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H106" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I106" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107">
+        <v>-0.47380664415601398</v>
+      </c>
+      <c r="C107">
+        <v>4.60917479785713</v>
+      </c>
+      <c r="D107">
+        <v>4.6334636130272697</v>
+      </c>
+      <c r="E107">
+        <v>14.349</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H107" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="I107" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108">
+        <v>0.90366993997061995</v>
+      </c>
+      <c r="C108">
+        <v>5.9480626596309802</v>
+      </c>
+      <c r="D108">
+        <v>6.0163168769025797</v>
+      </c>
+      <c r="E108">
+        <v>14.148999999999999</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109">
+        <v>-9.4813367465692995</v>
+      </c>
+      <c r="C109">
+        <v>18.2041069418711</v>
+      </c>
+      <c r="D109">
+        <v>20.525234616269898</v>
+      </c>
+      <c r="E109">
+        <v>13.999000000000001</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110">
+        <v>0.86390812216608703</v>
+      </c>
+      <c r="C110">
+        <v>4.63221714982717</v>
+      </c>
+      <c r="D110">
+        <v>4.7120879625382104</v>
+      </c>
+      <c r="E110">
+        <v>12.749000000000001</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111">
+        <v>0.33949150122728999</v>
+      </c>
+      <c r="C111">
+        <v>4.9682778387851299</v>
+      </c>
+      <c r="D111">
+        <v>4.97986336788159</v>
+      </c>
+      <c r="E111">
+        <v>13.648999999999999</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112">
+        <v>0.61154579141302601</v>
+      </c>
+      <c r="C112">
+        <v>9.8050355940888192</v>
+      </c>
+      <c r="D112">
+        <v>9.8240883168029303</v>
+      </c>
+      <c r="E112">
+        <v>11.599</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113">
+        <v>0.32477804508536701</v>
+      </c>
+      <c r="C113">
+        <v>5.5462394583743597</v>
+      </c>
+      <c r="D113">
+        <v>5.5557405364359997</v>
+      </c>
+      <c r="E113">
+        <v>13.249000000000001</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114">
+        <v>1.41235758768151</v>
+      </c>
+      <c r="C114">
+        <v>6.7443143518508899</v>
+      </c>
+      <c r="D114">
+        <v>6.89061173133876</v>
+      </c>
+      <c r="E114">
+        <v>14.349</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115">
+        <v>0.81088951704934198</v>
+      </c>
+      <c r="C115">
+        <v>5.0591689381546701</v>
+      </c>
+      <c r="D115">
+        <v>5.1237420069368804</v>
+      </c>
+      <c r="E115">
+        <v>13.648999999999999</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I115" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116">
+        <v>0.81196506329933704</v>
+      </c>
+      <c r="C116">
+        <v>4.7824367550392299</v>
+      </c>
+      <c r="D116">
+        <v>4.8508750324007401</v>
+      </c>
+      <c r="E116">
+        <v>13.398999999999999</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I116" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117">
+        <v>0.802998870790956</v>
+      </c>
+      <c r="C117">
+        <v>5.1392562326940698</v>
+      </c>
+      <c r="D117">
+        <v>5.2016114629772598</v>
+      </c>
+      <c r="E117">
+        <v>13.499000000000001</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I117" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118">
+        <v>0.50859989797454097</v>
+      </c>
+      <c r="C118">
+        <v>4.0678231957297299</v>
+      </c>
+      <c r="D118">
+        <v>4.0994950186500496</v>
+      </c>
+      <c r="E118">
+        <v>13.449</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="I118" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119">
+        <v>0.88954742214984595</v>
+      </c>
+      <c r="C119">
+        <v>4.6554311697922603</v>
+      </c>
+      <c r="D119">
+        <v>4.7396554719649</v>
+      </c>
+      <c r="E119">
+        <v>13.449</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H119" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="I119" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120">
+        <v>0.32529255665352602</v>
+      </c>
+      <c r="C120">
+        <v>5.4391574490880403</v>
+      </c>
+      <c r="D120">
+        <v>5.4488759394377899</v>
+      </c>
+      <c r="E120">
+        <v>13.949</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H120" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I120" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121">
+        <v>-0.30051365913856598</v>
+      </c>
+      <c r="C121">
+        <v>5.9297184576205497</v>
+      </c>
+      <c r="D121">
+        <v>5.9373284771835504</v>
+      </c>
+      <c r="E121">
+        <v>14.199</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H121" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="I121" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>103</v>
+      </c>
+      <c r="B122">
+        <v>-1.839581763</v>
+      </c>
+      <c r="C122">
+        <v>8.6824353629999997</v>
+      </c>
+      <c r="D122">
+        <v>8.875175767</v>
+      </c>
+      <c r="E122">
+        <v>15.749000000000001</v>
+      </c>
+      <c r="G122">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>-1.839581763</v>
-      </c>
-      <c r="C104">
-        <v>8.6824353629999997</v>
-      </c>
-      <c r="D104">
-        <v>8.875175767</v>
-      </c>
-      <c r="E104">
-        <v>15.749000000000001</v>
-      </c>
-      <c r="G104">
+      <c r="H122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123">
+        <v>0.295423027</v>
+      </c>
+      <c r="C123">
+        <v>9.1343089929999994</v>
+      </c>
+      <c r="D123">
+        <v>9.1390850490000002</v>
+      </c>
+      <c r="E123">
+        <v>15.148</v>
+      </c>
+      <c r="G123">
         <v>1</v>
       </c>
-      <c r="H104">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>0.295423027</v>
-      </c>
-      <c r="C105">
-        <v>9.1343089929999994</v>
-      </c>
-      <c r="D105">
-        <v>9.1390850490000002</v>
-      </c>
-      <c r="E105">
-        <v>15.148</v>
-      </c>
-      <c r="G105">
+      <c r="H123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124">
+        <v>-1.524132324</v>
+      </c>
+      <c r="C124">
+        <v>11.65486701</v>
+      </c>
+      <c r="D124">
+        <v>11.7541016</v>
+      </c>
+      <c r="E124">
+        <v>15.449</v>
+      </c>
+      <c r="G124">
         <v>1</v>
       </c>
-      <c r="H105">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>-1.524132324</v>
-      </c>
-      <c r="C106">
-        <v>11.65486701</v>
-      </c>
-      <c r="D106">
-        <v>11.7541016</v>
-      </c>
-      <c r="E106">
-        <v>15.449</v>
-      </c>
-      <c r="G106">
+      <c r="H124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125">
+        <v>-6.097309772</v>
+      </c>
+      <c r="C125">
+        <v>19.13449919</v>
+      </c>
+      <c r="D125">
+        <v>20.082486039999999</v>
+      </c>
+      <c r="E125">
+        <v>16.248000000000001</v>
+      </c>
+      <c r="G125">
         <v>1</v>
       </c>
-      <c r="H106">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>-6.097309772</v>
-      </c>
-      <c r="C107">
-        <v>19.13449919</v>
-      </c>
-      <c r="D107">
-        <v>20.082486039999999</v>
-      </c>
-      <c r="E107">
-        <v>16.248000000000001</v>
-      </c>
-      <c r="G107">
+      <c r="H125">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126">
+        <v>-10.98103944</v>
+      </c>
+      <c r="C126">
+        <v>25.01336298</v>
+      </c>
+      <c r="D126">
+        <v>27.317605220000001</v>
+      </c>
+      <c r="E126">
+        <v>16.798999999999999</v>
+      </c>
+      <c r="G126">
         <v>1</v>
       </c>
-      <c r="H107">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>-10.98103944</v>
-      </c>
-      <c r="C108">
-        <v>25.01336298</v>
-      </c>
-      <c r="D108">
-        <v>27.317605220000001</v>
-      </c>
-      <c r="E108">
-        <v>16.798999999999999</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
+      <c r="H126">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>113</v>
       </c>
-      <c r="B109">
+      <c r="B127">
         <v>2.940164953</v>
       </c>
-      <c r="C109">
+      <c r="C127">
         <v>8.6644520800000002</v>
       </c>
-      <c r="D109">
+      <c r="D127">
         <v>9.149715832</v>
       </c>
-      <c r="E109">
+      <c r="E127">
         <v>25.048999999999999</v>
       </c>
-      <c r="G109">
+      <c r="G127">
         <v>2</v>
       </c>
-      <c r="H109">
+      <c r="H127">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>114</v>
       </c>
-      <c r="B110">
+      <c r="B128">
         <v>1.7347973160000001</v>
       </c>
-      <c r="C110">
+      <c r="C128">
         <v>7.4339695829999997</v>
       </c>
-      <c r="D110">
+      <c r="D128">
         <v>7.633703262</v>
       </c>
-      <c r="E110">
+      <c r="E128">
         <v>20.199000000000002</v>
       </c>
-      <c r="G110">
+      <c r="G128">
         <v>2</v>
       </c>
-      <c r="H110">
+      <c r="H128">
         <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>115</v>
-      </c>
-      <c r="B111">
-        <v>0.90807284799999999</v>
-      </c>
-      <c r="C111">
-        <v>7.9144496000000002</v>
-      </c>
-      <c r="D111">
-        <v>7.9663736270000003</v>
-      </c>
-      <c r="E111">
-        <v>18.649000000000001</v>
-      </c>
-      <c r="G111">
-        <v>2</v>
-      </c>
-      <c r="H111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112">
-        <v>0.51881481799999996</v>
-      </c>
-      <c r="C112">
-        <v>8.3153079860000005</v>
-      </c>
-      <c r="D112">
-        <v>8.3314774039999993</v>
-      </c>
-      <c r="E112">
-        <v>17.998999999999999</v>
-      </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113">
-        <v>0.39256471999999998</v>
-      </c>
-      <c r="C113">
-        <v>8.1351005389999997</v>
-      </c>
-      <c r="D113">
-        <v>8.1445667680000007</v>
-      </c>
-      <c r="E113">
-        <v>16.498999999999999</v>
-      </c>
-      <c r="G113">
-        <v>2</v>
-      </c>
-      <c r="H113">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114">
-        <v>-0.16632809300000001</v>
-      </c>
-      <c r="C114">
-        <v>8.3467237769999993</v>
-      </c>
-      <c r="D114">
-        <v>8.348380852</v>
-      </c>
-      <c r="E114">
-        <v>16.748999999999999</v>
-      </c>
-      <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115">
-        <v>-1.1457448130000001</v>
-      </c>
-      <c r="C115">
-        <v>9.1396947229999999</v>
-      </c>
-      <c r="D115">
-        <v>9.2112296029999996</v>
-      </c>
-      <c r="E115">
-        <v>15.648999999999999</v>
-      </c>
-      <c r="G115">
-        <v>2</v>
-      </c>
-      <c r="H115">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116">
-        <v>-1.0516891049999999</v>
-      </c>
-      <c r="C116">
-        <v>10.06447315</v>
-      </c>
-      <c r="D116">
-        <v>10.11927219</v>
-      </c>
-      <c r="E116">
-        <v>15.648999999999999</v>
-      </c>
-      <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>112</v>
-      </c>
-      <c r="B117">
-        <v>-3.8811453619999998</v>
-      </c>
-      <c r="C117">
-        <v>13.628547449999999</v>
-      </c>
-      <c r="D117">
-        <v>14.17041266</v>
-      </c>
-      <c r="E117">
-        <v>15.898</v>
-      </c>
-      <c r="G117">
-        <v>2</v>
-      </c>
-      <c r="H117">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>2.9009853919999999</v>
-      </c>
-      <c r="C118">
-        <v>10.58803077</v>
-      </c>
-      <c r="D118">
-        <v>10.97825632</v>
-      </c>
-      <c r="E118">
-        <v>23.699000000000002</v>
-      </c>
-      <c r="G118">
-        <v>3</v>
-      </c>
-      <c r="H118">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>0.118715795</v>
-      </c>
-      <c r="C119">
-        <v>9.3853776250000003</v>
-      </c>
-      <c r="D119">
-        <v>9.3861284139999999</v>
-      </c>
-      <c r="E119">
-        <v>17.699000000000002</v>
-      </c>
-      <c r="G119">
-        <v>3</v>
-      </c>
-      <c r="H119">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>0.20110251500000001</v>
-      </c>
-      <c r="C120">
-        <v>10.888687279999999</v>
-      </c>
-      <c r="D120">
-        <v>10.89054419</v>
-      </c>
-      <c r="E120">
-        <v>17.149000000000001</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
-      </c>
-      <c r="H120">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>-1.5492689740000001</v>
-      </c>
-      <c r="C121">
-        <v>12.469780719999999</v>
-      </c>
-      <c r="D121">
-        <v>12.565654200000001</v>
-      </c>
-      <c r="E121">
-        <v>16.298999999999999</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-      <c r="H121">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>-2.4763841160000002</v>
-      </c>
-      <c r="C122">
-        <v>13.400219249999999</v>
-      </c>
-      <c r="D122">
-        <v>13.627118340000001</v>
-      </c>
-      <c r="E122">
-        <v>16.048999999999999</v>
-      </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
-      <c r="H122">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>-1.6108822300000001</v>
-      </c>
-      <c r="C123">
-        <v>11.31035938</v>
-      </c>
-      <c r="D123">
-        <v>11.42449871</v>
-      </c>
-      <c r="E123">
-        <v>16.349</v>
-      </c>
-      <c r="G123">
-        <v>4</v>
-      </c>
-      <c r="H123">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>6.8555828769999998</v>
-      </c>
-      <c r="C124">
-        <v>14.69413859</v>
-      </c>
-      <c r="D124">
-        <v>16.214707069999999</v>
-      </c>
-      <c r="E124">
-        <v>36.298000000000002</v>
-      </c>
-      <c r="G124">
-        <v>5</v>
-      </c>
-      <c r="H124">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>4.2844317270000003</v>
-      </c>
-      <c r="C125">
-        <v>13.669735559999999</v>
-      </c>
-      <c r="D125">
-        <v>14.32543282</v>
-      </c>
-      <c r="E125">
-        <v>27.099</v>
-      </c>
-      <c r="G125">
-        <v>5</v>
-      </c>
-      <c r="H125">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>3.6816679209999998</v>
-      </c>
-      <c r="C126">
-        <v>13.840591849999999</v>
-      </c>
-      <c r="D126">
-        <v>14.321894479999999</v>
-      </c>
-      <c r="E126">
-        <v>24.248999999999999</v>
-      </c>
-      <c r="G126">
-        <v>5</v>
-      </c>
-      <c r="H126">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>-0.70747308600000003</v>
-      </c>
-      <c r="C127">
-        <v>12.3771433</v>
-      </c>
-      <c r="D127">
-        <v>12.39734627</v>
-      </c>
-      <c r="E127">
-        <v>17.798999999999999</v>
-      </c>
-      <c r="G127">
-        <v>5</v>
-      </c>
-      <c r="H127">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>-1.2671709309999999</v>
-      </c>
-      <c r="C128">
-        <v>12.68926149</v>
-      </c>
-      <c r="D128">
-        <v>12.75237544</v>
-      </c>
-      <c r="E128">
-        <v>17.349</v>
-      </c>
-      <c r="G128">
-        <v>5</v>
-      </c>
-      <c r="H128">
-        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B129">
-        <v>5.2551312000000003E-2</v>
+        <v>0.90807284799999999</v>
       </c>
       <c r="C129">
-        <v>12.36988861</v>
+        <v>7.9144496000000002</v>
       </c>
       <c r="D129">
-        <v>12.37000023</v>
+        <v>7.9663736270000003</v>
       </c>
       <c r="E129">
-        <v>18.349</v>
+        <v>18.649000000000001</v>
       </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
         <v>8</v>
-      </c>
-      <c r="H129">
-        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B130">
-        <v>1.8749870719999999</v>
+        <v>0.51881481799999996</v>
       </c>
       <c r="C130">
-        <v>10.294684050000001</v>
+        <v>8.3153079860000005</v>
       </c>
       <c r="D130">
-        <v>10.46403823</v>
+        <v>8.3314774039999993</v>
       </c>
       <c r="E130">
-        <v>23.35</v>
+        <v>17.998999999999999</v>
       </c>
       <c r="G130">
         <v>2</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B131">
-        <v>0.76092659399999996</v>
+        <v>0.39256471999999998</v>
       </c>
       <c r="C131">
-        <v>4.5570402080000001</v>
+        <v>8.1351005389999997</v>
       </c>
       <c r="D131">
-        <v>4.6201325449999997</v>
+        <v>8.1445667680000007</v>
       </c>
       <c r="E131">
-        <v>14.148999999999999</v>
+        <v>16.498999999999999</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
       <c r="H131">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B132">
-        <v>1.2936831390000001</v>
+        <v>-0.16632809300000001</v>
       </c>
       <c r="C132">
-        <v>4.0755639649999997</v>
+        <v>8.3467237769999993</v>
       </c>
       <c r="D132">
-        <v>4.2759604419999997</v>
+        <v>8.348380852</v>
       </c>
       <c r="E132">
-        <v>13.398999999999999</v>
+        <v>16.748999999999999</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B133">
-        <v>2.1347611909999999</v>
+        <v>-1.1457448130000001</v>
       </c>
       <c r="C133">
-        <v>4.2548370469999997</v>
+        <v>9.1396947229999999</v>
       </c>
       <c r="D133">
-        <v>4.760340706</v>
+        <v>9.2112296029999996</v>
       </c>
       <c r="E133">
-        <v>12.898999999999999</v>
+        <v>15.648999999999999</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B134">
-        <v>2.2122398350000001</v>
+        <v>-1.0516891049999999</v>
       </c>
       <c r="C134">
-        <v>5.0325587049999996</v>
+        <v>10.06447315</v>
       </c>
       <c r="D134">
-        <v>5.4973313719999997</v>
+        <v>10.11927219</v>
       </c>
       <c r="E134">
-        <v>12.548999999999999</v>
+        <v>15.648999999999999</v>
       </c>
       <c r="G134">
         <v>2</v>
       </c>
       <c r="H134">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B135">
-        <v>-0.14361775800000001</v>
+        <v>-3.8811453619999998</v>
       </c>
       <c r="C135">
-        <v>10.70858327</v>
+        <v>13.628547449999999</v>
       </c>
       <c r="D135">
-        <v>10.70954629</v>
+        <v>14.17041266</v>
       </c>
       <c r="E135">
-        <v>12.798999999999999</v>
+        <v>15.898</v>
       </c>
       <c r="G135">
         <v>2</v>
       </c>
       <c r="H135">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B136">
-        <v>0.79946874700000004</v>
+        <v>2.9009853919999999</v>
       </c>
       <c r="C136">
-        <v>3.9203780940000001</v>
+        <v>10.58803077</v>
       </c>
       <c r="D136">
-        <v>4.0010641930000004</v>
+        <v>10.97825632</v>
       </c>
       <c r="E136">
-        <v>13.499000000000001</v>
+        <v>23.699000000000002</v>
       </c>
       <c r="G136">
         <v>3</v>
       </c>
       <c r="H136">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B137">
-        <v>4.3828544239999996</v>
+        <v>0.118715795</v>
       </c>
       <c r="C137">
-        <v>13.51843506</v>
+        <v>9.3853776250000003</v>
       </c>
       <c r="D137">
-        <v>14.21117516</v>
+        <v>9.3861284139999999</v>
       </c>
       <c r="E137">
-        <v>29.399000000000001</v>
+        <v>17.699000000000002</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B138">
-        <v>0.41178820100000002</v>
+        <v>0.20110251500000001</v>
       </c>
       <c r="C138">
-        <v>6.2915423559999999</v>
+        <v>10.888687279999999</v>
       </c>
       <c r="D138">
-        <v>6.3050039450000002</v>
+        <v>10.89054419</v>
       </c>
       <c r="E138">
-        <v>15.499000000000001</v>
+        <v>17.149000000000001</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H138">
         <v>20</v>
@@ -14971,689 +15254,689 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B139">
-        <v>0.47701748700000002</v>
+        <v>-1.5492689740000001</v>
       </c>
       <c r="C139">
-        <v>3.9458519029999999</v>
+        <v>12.469780719999999</v>
       </c>
       <c r="D139">
-        <v>3.9745808490000001</v>
+        <v>12.565654200000001</v>
       </c>
       <c r="E139">
-        <v>13.648999999999999</v>
+        <v>16.298999999999999</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B140">
-        <v>1.408757415</v>
+        <v>-2.4763841160000002</v>
       </c>
       <c r="C140">
-        <v>4.1663798200000004</v>
+        <v>13.400219249999999</v>
       </c>
       <c r="D140">
-        <v>4.3981039390000003</v>
+        <v>13.627118340000001</v>
       </c>
       <c r="E140">
-        <v>13.148999999999999</v>
+        <v>16.048999999999999</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B141">
-        <v>2.2306214670000002</v>
+        <v>-1.6108822300000001</v>
       </c>
       <c r="C141">
-        <v>4.4895351489999999</v>
+        <v>11.31035938</v>
       </c>
       <c r="D141">
-        <v>5.0131425250000001</v>
+        <v>11.42449871</v>
       </c>
       <c r="E141">
-        <v>12.698</v>
+        <v>16.349</v>
       </c>
       <c r="G141">
         <v>4</v>
       </c>
       <c r="H141">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B142">
-        <v>2.090452338</v>
+        <v>6.8555828769999998</v>
       </c>
       <c r="C142">
-        <v>5.8916025090000002</v>
+        <v>14.69413859</v>
       </c>
       <c r="D142">
-        <v>6.2514775140000003</v>
+        <v>16.214707069999999</v>
       </c>
       <c r="E142">
-        <v>12.548999999999999</v>
+        <v>36.298000000000002</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H142">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B143">
-        <v>0.28254899300000003</v>
+        <v>4.2844317270000003</v>
       </c>
       <c r="C143">
-        <v>3.975860913</v>
+        <v>13.669735559999999</v>
       </c>
       <c r="D143">
-        <v>3.9858880980000002</v>
+        <v>14.32543282</v>
       </c>
       <c r="E143">
-        <v>13.999000000000001</v>
+        <v>27.099</v>
       </c>
       <c r="G143">
         <v>5</v>
       </c>
       <c r="H143">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B144">
-        <v>0.55666393300000006</v>
+        <v>3.6816679209999998</v>
       </c>
       <c r="C144">
-        <v>3.6938227079999999</v>
+        <v>13.840591849999999</v>
       </c>
       <c r="D144">
-        <v>3.7355322150000001</v>
+        <v>14.321894479999999</v>
       </c>
       <c r="E144">
-        <v>13.747999999999999</v>
+        <v>24.248999999999999</v>
       </c>
       <c r="G144">
         <v>5</v>
       </c>
       <c r="H144">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B145">
-        <v>0.70637242700000002</v>
+        <v>-0.70747308600000003</v>
       </c>
       <c r="C145">
-        <v>3.8869080789999999</v>
+        <v>12.3771433</v>
       </c>
       <c r="D145">
-        <v>3.9505716579999999</v>
+        <v>12.39734627</v>
       </c>
       <c r="E145">
-        <v>13.599</v>
+        <v>17.798999999999999</v>
       </c>
       <c r="G145">
         <v>5</v>
       </c>
       <c r="H145">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B146">
-        <v>1.1479122070000001</v>
+        <v>-1.2671709309999999</v>
       </c>
       <c r="C146">
-        <v>4.0877599099999999</v>
+        <v>12.68926149</v>
       </c>
       <c r="D146">
-        <v>4.245878415</v>
+        <v>12.75237544</v>
       </c>
       <c r="E146">
-        <v>13.249000000000001</v>
+        <v>17.349</v>
       </c>
       <c r="G146">
         <v>5</v>
       </c>
       <c r="H146">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B147">
-        <v>4.2706044619999997</v>
+        <v>5.2551312000000003E-2</v>
       </c>
       <c r="C147">
-        <v>12.582996209999999</v>
+        <v>12.36988861</v>
       </c>
       <c r="D147">
-        <v>13.287959069999999</v>
+        <v>12.37000023</v>
       </c>
       <c r="E147">
-        <v>30.899000000000001</v>
+        <v>18.349</v>
       </c>
       <c r="G147">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B148">
-        <v>-0.389383908</v>
+        <v>1.8749870719999999</v>
       </c>
       <c r="C148">
-        <v>6.1664667499999997</v>
+        <v>10.294684050000001</v>
       </c>
       <c r="D148">
-        <v>6.1787484170000004</v>
+        <v>10.46403823</v>
       </c>
       <c r="E148">
-        <v>16.048999999999999</v>
+        <v>23.35</v>
       </c>
       <c r="G148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B149">
-        <v>0.417387224</v>
+        <v>0.76092659399999996</v>
       </c>
       <c r="C149">
-        <v>4.1908671929999999</v>
+        <v>4.5570402080000001</v>
       </c>
       <c r="D149">
-        <v>4.211600636</v>
+        <v>4.6201325449999997</v>
       </c>
       <c r="E149">
         <v>14.148999999999999</v>
       </c>
       <c r="G149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H149">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B150">
-        <v>1.1583311080000001</v>
+        <v>1.2936831390000001</v>
       </c>
       <c r="C150">
-        <v>4.1813222200000002</v>
+        <v>4.0755639649999997</v>
       </c>
       <c r="D150">
-        <v>4.338800118</v>
+        <v>4.2759604419999997</v>
       </c>
       <c r="E150">
-        <v>13.249000000000001</v>
+        <v>13.398999999999999</v>
       </c>
       <c r="G150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B151">
-        <v>2.1701991139999999</v>
+        <v>2.1347611909999999</v>
       </c>
       <c r="C151">
-        <v>4.202761883</v>
+        <v>4.2548370469999997</v>
       </c>
       <c r="D151">
-        <v>4.730007573</v>
+        <v>4.760340706</v>
       </c>
       <c r="E151">
-        <v>12.798999999999999</v>
+        <v>12.898999999999999</v>
       </c>
       <c r="G151">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H151">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B152">
-        <v>2.106829898</v>
+        <v>2.2122398350000001</v>
       </c>
       <c r="C152">
-        <v>5.4788414730000001</v>
+        <v>5.0325587049999996</v>
       </c>
       <c r="D152">
-        <v>5.8699604860000001</v>
+        <v>5.4973313719999997</v>
       </c>
       <c r="E152">
         <v>12.548999999999999</v>
       </c>
       <c r="G152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H152">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B153">
-        <v>0.41303647700000001</v>
+        <v>-0.14361775800000001</v>
       </c>
       <c r="C153">
-        <v>12.884738459999999</v>
+        <v>10.70858327</v>
       </c>
       <c r="D153">
-        <v>12.89135696</v>
+        <v>10.70954629</v>
       </c>
       <c r="E153">
-        <v>31.149000000000001</v>
+        <v>12.798999999999999</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B154">
-        <v>-0.89715677599999999</v>
+        <v>0.79946874700000004</v>
       </c>
       <c r="C154">
-        <v>9.9087293570000003</v>
+        <v>3.9203780940000001</v>
       </c>
       <c r="D154">
-        <v>9.9492616690000002</v>
+        <v>4.0010641930000004</v>
       </c>
       <c r="E154">
-        <v>22.248999999999999</v>
+        <v>13.499000000000001</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B155">
-        <v>-2.1898170760000002</v>
+        <v>4.3828544239999996</v>
       </c>
       <c r="C155">
-        <v>8.4256619239999999</v>
+        <v>13.51843506</v>
       </c>
       <c r="D155">
-        <v>8.7055773900000002</v>
+        <v>14.21117516</v>
       </c>
       <c r="E155">
-        <v>19.547999999999998</v>
+        <v>29.399000000000001</v>
       </c>
       <c r="G155">
+        <v>4</v>
+      </c>
+      <c r="H155">
         <v>10</v>
-      </c>
-      <c r="H155">
-        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B156">
-        <v>-2.497862907</v>
+        <v>0.41178820100000002</v>
       </c>
       <c r="C156">
-        <v>8.0776725460000005</v>
+        <v>6.2915423559999999</v>
       </c>
       <c r="D156">
-        <v>8.4550643329999993</v>
+        <v>6.3050039450000002</v>
       </c>
       <c r="E156">
-        <v>18.148</v>
+        <v>15.499000000000001</v>
       </c>
       <c r="G156">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H156">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B157">
-        <v>-3.5179823990000001</v>
+        <v>0.47701748700000002</v>
       </c>
       <c r="C157">
-        <v>7.7865599420000002</v>
+        <v>3.9458519029999999</v>
       </c>
       <c r="D157">
-        <v>8.5443967539999992</v>
+        <v>3.9745808490000001</v>
       </c>
       <c r="E157">
-        <v>17.399000000000001</v>
+        <v>13.648999999999999</v>
       </c>
       <c r="G157">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H157">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B158">
-        <v>-0.84254572400000005</v>
+        <v>1.408757415</v>
       </c>
       <c r="C158">
-        <v>13.65857565</v>
+        <v>4.1663798200000004</v>
       </c>
       <c r="D158">
-        <v>13.6845377</v>
+        <v>4.3981039390000003</v>
       </c>
       <c r="E158">
-        <v>25.248000000000001</v>
+        <v>13.148999999999999</v>
       </c>
       <c r="G158">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H158">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B159">
-        <v>-1.6844527570000001</v>
+        <v>2.2306214670000002</v>
       </c>
       <c r="C159">
-        <v>8.7450598050000004</v>
+        <v>4.4895351489999999</v>
       </c>
       <c r="D159">
-        <v>8.9058100190000005</v>
+        <v>5.0131425250000001</v>
       </c>
       <c r="E159">
-        <v>18.548999999999999</v>
+        <v>12.698</v>
       </c>
       <c r="G159">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H159">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B160">
-        <v>-2.4584801220000001</v>
+        <v>2.090452338</v>
       </c>
       <c r="C160">
-        <v>7.5293908619999996</v>
+        <v>5.8916025090000002</v>
       </c>
       <c r="D160">
-        <v>7.9205966480000001</v>
+        <v>6.2514775140000003</v>
       </c>
       <c r="E160">
-        <v>17.099</v>
+        <v>12.548999999999999</v>
       </c>
       <c r="G160">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H160">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B161">
-        <v>-2.1913530940000001</v>
+        <v>0.28254899300000003</v>
       </c>
       <c r="C161">
-        <v>7.3265490829999997</v>
+        <v>3.975860913</v>
       </c>
       <c r="D161">
-        <v>7.6472445919999998</v>
+        <v>3.9858880980000002</v>
       </c>
       <c r="E161">
-        <v>16.847999999999999</v>
+        <v>13.999000000000001</v>
       </c>
       <c r="G161">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H161">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B162">
-        <v>-1.558287881</v>
+        <v>0.55666393300000006</v>
       </c>
       <c r="C162">
-        <v>6.1211568459999999</v>
+        <v>3.6938227079999999</v>
       </c>
       <c r="D162">
-        <v>6.3163931360000003</v>
+        <v>3.7355322150000001</v>
       </c>
       <c r="E162">
-        <v>16.398</v>
+        <v>13.747999999999999</v>
       </c>
       <c r="G162">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H162">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B163">
-        <v>-2.094157161</v>
+        <v>0.70637242700000002</v>
       </c>
       <c r="C163">
-        <v>6.9637454290000003</v>
+        <v>3.8869080789999999</v>
       </c>
       <c r="D163">
-        <v>7.2718116459999997</v>
+        <v>3.9505716579999999</v>
       </c>
       <c r="E163">
-        <v>16.797999999999998</v>
+        <v>13.599</v>
       </c>
       <c r="G163">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H163">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B164">
-        <v>-1.684036536</v>
+        <v>1.1479122070000001</v>
       </c>
       <c r="C164">
-        <v>6.3145281759999996</v>
+        <v>4.0877599099999999</v>
       </c>
       <c r="D164">
-        <v>6.53523107</v>
+        <v>4.245878415</v>
       </c>
       <c r="E164">
-        <v>16.548999999999999</v>
+        <v>13.249000000000001</v>
       </c>
       <c r="G164">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H164">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B165">
-        <v>-2.0884270200000001</v>
+        <v>4.2706044619999997</v>
       </c>
       <c r="C165">
-        <v>6.961891198</v>
+        <v>12.582996209999999</v>
       </c>
       <c r="D165">
-        <v>7.2683874739999998</v>
+        <v>13.287959069999999</v>
       </c>
       <c r="E165">
-        <v>16.699000000000002</v>
+        <v>30.899000000000001</v>
       </c>
       <c r="G165">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H165">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B166">
-        <v>-1.6558715690000001</v>
+        <v>-0.389383908</v>
       </c>
       <c r="C166">
-        <v>6.5336446180000003</v>
+        <v>6.1664667499999997</v>
       </c>
       <c r="D166">
-        <v>6.7402093919999997</v>
+        <v>6.1787484170000004</v>
       </c>
       <c r="E166">
-        <v>16.548999999999999</v>
+        <v>16.048999999999999</v>
       </c>
       <c r="G166">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H166">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B167">
-        <v>-1.3962406999999999</v>
+        <v>0.417387224</v>
       </c>
       <c r="C167">
-        <v>6.4382140000000003</v>
+        <v>4.1908671929999999</v>
       </c>
       <c r="D167">
-        <v>6.5878742859999999</v>
+        <v>4.211600636</v>
       </c>
       <c r="E167">
-        <v>16.399000000000001</v>
+        <v>14.148999999999999</v>
       </c>
       <c r="G167">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H167">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B168">
-        <v>-1.3009938210000001</v>
+        <v>1.1583311080000001</v>
       </c>
       <c r="C168">
-        <v>7.2424791089999996</v>
+        <v>4.1813222200000002</v>
       </c>
       <c r="D168">
-        <v>7.3584025820000001</v>
+        <v>4.338800118</v>
       </c>
       <c r="E168">
-        <v>16.599</v>
+        <v>13.249000000000001</v>
       </c>
       <c r="G168">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H168">
         <v>30</v>
@@ -15661,413 +15944,413 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B169">
-        <v>-0.99452946600000003</v>
+        <v>2.1701991139999999</v>
       </c>
       <c r="C169">
-        <v>11.159179050000001</v>
+        <v>4.202761883</v>
       </c>
       <c r="D169">
-        <v>11.203408680000001</v>
+        <v>4.730007573</v>
       </c>
       <c r="E169">
-        <v>20.748999999999999</v>
+        <v>12.798999999999999</v>
       </c>
       <c r="G169">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H169">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B170">
-        <v>-2.0140412510000001</v>
+        <v>2.106829898</v>
       </c>
       <c r="C170">
-        <v>7.8444497069999999</v>
+        <v>5.4788414730000001</v>
       </c>
       <c r="D170">
-        <v>8.0988735859999998</v>
+        <v>5.8699604860000001</v>
       </c>
       <c r="E170">
-        <v>17.248000000000001</v>
+        <v>12.548999999999999</v>
       </c>
       <c r="G170">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H170">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B171">
-        <v>-1.6233743730000001</v>
+        <v>0.41303647700000001</v>
       </c>
       <c r="C171">
-        <v>6.7025395760000004</v>
+        <v>12.884738459999999</v>
       </c>
       <c r="D171">
-        <v>6.89633099</v>
+        <v>12.89135696</v>
       </c>
       <c r="E171">
-        <v>16.599</v>
+        <v>31.149000000000001</v>
       </c>
       <c r="G171">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H171">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B172">
-        <v>-1.213911712</v>
+        <v>-0.89715677599999999</v>
       </c>
       <c r="C172">
-        <v>6.2361626660000002</v>
+        <v>9.9087293570000003</v>
       </c>
       <c r="D172">
-        <v>6.3532122930000003</v>
+        <v>9.9492616690000002</v>
       </c>
       <c r="E172">
-        <v>16.349</v>
+        <v>22.248999999999999</v>
       </c>
       <c r="G172">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H172">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B173">
-        <v>-1.0279410019999999</v>
+        <v>-2.1898170760000002</v>
       </c>
       <c r="C173">
-        <v>6.6441258569999997</v>
+        <v>8.4256619239999999</v>
       </c>
       <c r="D173">
-        <v>6.7231741840000003</v>
+        <v>8.7055773900000002</v>
       </c>
       <c r="E173">
-        <v>16.298999999999999</v>
+        <v>19.547999999999998</v>
       </c>
       <c r="G173">
+        <v>10</v>
+      </c>
+      <c r="H173">
         <v>20</v>
-      </c>
-      <c r="H173">
-        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B174">
-        <v>-1.136538767</v>
+        <v>-2.497862907</v>
       </c>
       <c r="C174">
-        <v>6.3853039909999998</v>
+        <v>8.0776725460000005</v>
       </c>
       <c r="D174">
-        <v>6.4856632220000003</v>
+        <v>8.4550643329999993</v>
       </c>
       <c r="E174">
-        <v>16.297999999999998</v>
+        <v>18.148</v>
       </c>
       <c r="G174">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H174">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B175">
-        <v>-1.271793111</v>
+        <v>-3.5179823990000001</v>
       </c>
       <c r="C175">
-        <v>6.7573882440000004</v>
+        <v>7.7865599420000002</v>
       </c>
       <c r="D175">
-        <v>6.8760274580000003</v>
+        <v>8.5443967539999992</v>
       </c>
       <c r="E175">
-        <v>16.349</v>
+        <v>17.399000000000001</v>
       </c>
       <c r="G175">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H175">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B176">
-        <v>-1.638985036</v>
+        <v>-0.84254572400000005</v>
       </c>
       <c r="C176">
-        <v>6.0891246089999997</v>
+        <v>13.65857565</v>
       </c>
       <c r="D176">
-        <v>6.305847322</v>
+        <v>13.6845377</v>
       </c>
       <c r="E176">
-        <v>16.298999999999999</v>
+        <v>25.248000000000001</v>
       </c>
       <c r="G176">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H176">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B177">
-        <v>-1.199338765</v>
+        <v>-1.6844527570000001</v>
       </c>
       <c r="C177">
-        <v>6.9962987139999999</v>
+        <v>8.7450598050000004</v>
       </c>
       <c r="D177">
-        <v>7.0983525670000001</v>
+        <v>8.9058100190000005</v>
       </c>
       <c r="E177">
-        <v>16.498999999999999</v>
+        <v>18.548999999999999</v>
       </c>
       <c r="G177">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H177">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B178">
-        <v>-1.689567842</v>
+        <v>-2.4584801220000001</v>
       </c>
       <c r="C178">
-        <v>6.8254173900000001</v>
+        <v>7.5293908619999996</v>
       </c>
       <c r="D178">
-        <v>7.0314267419999998</v>
+        <v>7.9205966480000001</v>
       </c>
       <c r="E178">
-        <v>16.748999999999999</v>
+        <v>17.099</v>
       </c>
       <c r="G178">
+        <v>15</v>
+      </c>
+      <c r="H178">
         <v>20</v>
-      </c>
-      <c r="H178">
-        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B179">
-        <v>-1.759702281</v>
+        <v>-2.1913530940000001</v>
       </c>
       <c r="C179">
-        <v>7.1582309479999999</v>
+        <v>7.3265490829999997</v>
       </c>
       <c r="D179">
-        <v>7.371351465</v>
+        <v>7.6472445919999998</v>
       </c>
       <c r="E179">
-        <v>16.849</v>
+        <v>16.847999999999999</v>
       </c>
       <c r="G179">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H179">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B180">
-        <v>-1.798836197</v>
+        <v>-1.558287881</v>
       </c>
       <c r="C180">
-        <v>7.0907929980000004</v>
+        <v>6.1211568459999999</v>
       </c>
       <c r="D180">
-        <v>7.3154054569999998</v>
+        <v>6.3163931360000003</v>
       </c>
       <c r="E180">
-        <v>16.798999999999999</v>
+        <v>16.398</v>
       </c>
       <c r="G180">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H180">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B181">
-        <v>-1.096483893</v>
+        <v>-2.094157161</v>
       </c>
       <c r="C181">
-        <v>6.5772919979999998</v>
+        <v>6.9637454290000003</v>
       </c>
       <c r="D181">
-        <v>6.6680617089999998</v>
+        <v>7.2718116459999997</v>
       </c>
       <c r="E181">
-        <v>16.449000000000002</v>
+        <v>16.797999999999998</v>
       </c>
       <c r="G181">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H181">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B182">
-        <v>-0.82721840199999996</v>
+        <v>-1.684036536</v>
       </c>
       <c r="C182">
-        <v>12.019798850000001</v>
+        <v>6.3145281759999996</v>
       </c>
       <c r="D182">
-        <v>12.048230350000001</v>
+        <v>6.53523107</v>
       </c>
       <c r="E182">
-        <v>21.047999999999998</v>
+        <v>16.548999999999999</v>
       </c>
       <c r="G182">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H182">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B183">
-        <v>-1.0757496499999999</v>
+        <v>-2.0884270200000001</v>
       </c>
       <c r="C183">
-        <v>6.8941637949999999</v>
+        <v>6.961891198</v>
       </c>
       <c r="D183">
-        <v>6.9775878169999999</v>
+        <v>7.2683874739999998</v>
       </c>
       <c r="E183">
-        <v>16.548999999999999</v>
+        <v>16.699000000000002</v>
       </c>
       <c r="G183">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H183">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B184">
-        <v>-1.218041704</v>
+        <v>-1.6558715690000001</v>
       </c>
       <c r="C184">
-        <v>6.4369385240000003</v>
+        <v>6.5336446180000003</v>
       </c>
       <c r="D184">
-        <v>6.5511680759999997</v>
+        <v>6.7402093919999997</v>
       </c>
       <c r="E184">
-        <v>16.699000000000002</v>
+        <v>16.548999999999999</v>
       </c>
       <c r="G184">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H184">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B185">
-        <v>-1.314653176</v>
+        <v>-1.3962406999999999</v>
       </c>
       <c r="C185">
-        <v>6.785944303</v>
+        <v>6.4382140000000003</v>
       </c>
       <c r="D185">
-        <v>6.912116395</v>
+        <v>6.5878742859999999</v>
       </c>
       <c r="E185">
-        <v>16.798999999999999</v>
+        <v>16.399000000000001</v>
       </c>
       <c r="G185">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H185">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B186">
-        <v>-1.1270400789999999</v>
+        <v>-1.3009938210000001</v>
       </c>
       <c r="C186">
-        <v>7.2001525339999999</v>
+        <v>7.2424791089999996</v>
       </c>
       <c r="D186">
-        <v>7.2878265520000003</v>
+        <v>7.3584025820000001</v>
       </c>
       <c r="E186">
-        <v>16.399000000000001</v>
+        <v>16.599</v>
       </c>
       <c r="G186">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H186">
         <v>30</v>
@@ -16075,70 +16358,484 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B187">
-        <v>-1.4753548809999999</v>
+        <v>-0.99452946600000003</v>
       </c>
       <c r="C187">
-        <v>8.0100041579999992</v>
+        <v>11.159179050000001</v>
       </c>
       <c r="D187">
-        <v>8.1447430060000006</v>
+        <v>11.203408680000001</v>
       </c>
       <c r="E187">
-        <v>16.649000000000001</v>
+        <v>20.748999999999999</v>
       </c>
       <c r="G187">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H187">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B188">
-        <v>-1.395863919</v>
+        <v>-2.0140412510000001</v>
       </c>
       <c r="C188">
-        <v>7.3595654279999998</v>
+        <v>7.8444497069999999</v>
       </c>
       <c r="D188">
-        <v>7.4907702790000004</v>
+        <v>8.0988735859999998</v>
       </c>
       <c r="E188">
-        <v>16.399000000000001</v>
+        <v>17.248000000000001</v>
       </c>
       <c r="G188">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H188">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>170</v>
+      </c>
+      <c r="B189">
+        <v>-1.6233743730000001</v>
+      </c>
+      <c r="C189">
+        <v>6.7025395760000004</v>
+      </c>
+      <c r="D189">
+        <v>6.89633099</v>
+      </c>
+      <c r="E189">
+        <v>16.599</v>
+      </c>
+      <c r="G189">
+        <v>20</v>
+      </c>
+      <c r="H189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>171</v>
+      </c>
+      <c r="B190">
+        <v>-1.213911712</v>
+      </c>
+      <c r="C190">
+        <v>6.2361626660000002</v>
+      </c>
+      <c r="D190">
+        <v>6.3532122930000003</v>
+      </c>
+      <c r="E190">
+        <v>16.349</v>
+      </c>
+      <c r="G190">
+        <v>20</v>
+      </c>
+      <c r="H190">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>172</v>
+      </c>
+      <c r="B191">
+        <v>-1.0279410019999999</v>
+      </c>
+      <c r="C191">
+        <v>6.6441258569999997</v>
+      </c>
+      <c r="D191">
+        <v>6.7231741840000003</v>
+      </c>
+      <c r="E191">
+        <v>16.298999999999999</v>
+      </c>
+      <c r="G191">
+        <v>20</v>
+      </c>
+      <c r="H191">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>173</v>
+      </c>
+      <c r="B192">
+        <v>-1.136538767</v>
+      </c>
+      <c r="C192">
+        <v>6.3853039909999998</v>
+      </c>
+      <c r="D192">
+        <v>6.4856632220000003</v>
+      </c>
+      <c r="E192">
+        <v>16.297999999999998</v>
+      </c>
+      <c r="G192">
+        <v>20</v>
+      </c>
+      <c r="H192">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>174</v>
+      </c>
+      <c r="B193">
+        <v>-1.271793111</v>
+      </c>
+      <c r="C193">
+        <v>6.7573882440000004</v>
+      </c>
+      <c r="D193">
+        <v>6.8760274580000003</v>
+      </c>
+      <c r="E193">
+        <v>16.349</v>
+      </c>
+      <c r="G193">
+        <v>20</v>
+      </c>
+      <c r="H193">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>175</v>
+      </c>
+      <c r="B194">
+        <v>-1.638985036</v>
+      </c>
+      <c r="C194">
+        <v>6.0891246089999997</v>
+      </c>
+      <c r="D194">
+        <v>6.305847322</v>
+      </c>
+      <c r="E194">
+        <v>16.298999999999999</v>
+      </c>
+      <c r="G194">
+        <v>20</v>
+      </c>
+      <c r="H194">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>176</v>
+      </c>
+      <c r="B195">
+        <v>-1.199338765</v>
+      </c>
+      <c r="C195">
+        <v>6.9962987139999999</v>
+      </c>
+      <c r="D195">
+        <v>7.0983525670000001</v>
+      </c>
+      <c r="E195">
+        <v>16.498999999999999</v>
+      </c>
+      <c r="G195">
+        <v>20</v>
+      </c>
+      <c r="H195">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>177</v>
+      </c>
+      <c r="B196">
+        <v>-1.689567842</v>
+      </c>
+      <c r="C196">
+        <v>6.8254173900000001</v>
+      </c>
+      <c r="D196">
+        <v>7.0314267419999998</v>
+      </c>
+      <c r="E196">
+        <v>16.748999999999999</v>
+      </c>
+      <c r="G196">
+        <v>20</v>
+      </c>
+      <c r="H196">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>178</v>
+      </c>
+      <c r="B197">
+        <v>-1.759702281</v>
+      </c>
+      <c r="C197">
+        <v>7.1582309479999999</v>
+      </c>
+      <c r="D197">
+        <v>7.371351465</v>
+      </c>
+      <c r="E197">
+        <v>16.849</v>
+      </c>
+      <c r="G197">
+        <v>20</v>
+      </c>
+      <c r="H197">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>179</v>
+      </c>
+      <c r="B198">
+        <v>-1.798836197</v>
+      </c>
+      <c r="C198">
+        <v>7.0907929980000004</v>
+      </c>
+      <c r="D198">
+        <v>7.3154054569999998</v>
+      </c>
+      <c r="E198">
+        <v>16.798999999999999</v>
+      </c>
+      <c r="G198">
+        <v>20</v>
+      </c>
+      <c r="H198">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>180</v>
+      </c>
+      <c r="B199">
+        <v>-1.096483893</v>
+      </c>
+      <c r="C199">
+        <v>6.5772919979999998</v>
+      </c>
+      <c r="D199">
+        <v>6.6680617089999998</v>
+      </c>
+      <c r="E199">
+        <v>16.449000000000002</v>
+      </c>
+      <c r="G199">
+        <v>21</v>
+      </c>
+      <c r="H199">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>181</v>
+      </c>
+      <c r="B200">
+        <v>-0.82721840199999996</v>
+      </c>
+      <c r="C200">
+        <v>12.019798850000001</v>
+      </c>
+      <c r="D200">
+        <v>12.048230350000001</v>
+      </c>
+      <c r="E200">
+        <v>21.047999999999998</v>
+      </c>
+      <c r="G200">
+        <v>25</v>
+      </c>
+      <c r="H200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>182</v>
+      </c>
+      <c r="B201">
+        <v>-1.0757496499999999</v>
+      </c>
+      <c r="C201">
+        <v>6.8941637949999999</v>
+      </c>
+      <c r="D201">
+        <v>6.9775878169999999</v>
+      </c>
+      <c r="E201">
+        <v>16.548999999999999</v>
+      </c>
+      <c r="G201">
+        <v>25</v>
+      </c>
+      <c r="H201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>183</v>
+      </c>
+      <c r="B202">
+        <v>-1.218041704</v>
+      </c>
+      <c r="C202">
+        <v>6.4369385240000003</v>
+      </c>
+      <c r="D202">
+        <v>6.5511680759999997</v>
+      </c>
+      <c r="E202">
+        <v>16.699000000000002</v>
+      </c>
+      <c r="G202">
+        <v>25</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>184</v>
+      </c>
+      <c r="B203">
+        <v>-1.314653176</v>
+      </c>
+      <c r="C203">
+        <v>6.785944303</v>
+      </c>
+      <c r="D203">
+        <v>6.912116395</v>
+      </c>
+      <c r="E203">
+        <v>16.798999999999999</v>
+      </c>
+      <c r="G203">
+        <v>25</v>
+      </c>
+      <c r="H203">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>185</v>
+      </c>
+      <c r="B204">
+        <v>-1.1270400789999999</v>
+      </c>
+      <c r="C204">
+        <v>7.2001525339999999</v>
+      </c>
+      <c r="D204">
+        <v>7.2878265520000003</v>
+      </c>
+      <c r="E204">
+        <v>16.399000000000001</v>
+      </c>
+      <c r="G204">
+        <v>25</v>
+      </c>
+      <c r="H204">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>186</v>
+      </c>
+      <c r="B205">
+        <v>-1.4753548809999999</v>
+      </c>
+      <c r="C205">
+        <v>8.0100041579999992</v>
+      </c>
+      <c r="D205">
+        <v>8.1447430060000006</v>
+      </c>
+      <c r="E205">
+        <v>16.649000000000001</v>
+      </c>
+      <c r="G205">
+        <v>25</v>
+      </c>
+      <c r="H205">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>187</v>
+      </c>
+      <c r="B206">
+        <v>-1.395863919</v>
+      </c>
+      <c r="C206">
+        <v>7.3595654279999998</v>
+      </c>
+      <c r="D206">
+        <v>7.4907702790000004</v>
+      </c>
+      <c r="E206">
+        <v>16.399000000000001</v>
+      </c>
+      <c r="G206">
+        <v>25</v>
+      </c>
+      <c r="H206">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B207">
         <v>-1.678103581</v>
       </c>
-      <c r="C189">
+      <c r="C207">
         <v>7.5904347640000003</v>
       </c>
-      <c r="D189">
+      <c r="D207">
         <v>7.7737205730000003</v>
       </c>
-      <c r="E189">
+      <c r="E207">
         <v>16.498999999999999</v>
       </c>
-      <c r="G189">
+      <c r="G207">
         <v>25</v>
       </c>
-      <c r="H189">
+      <c r="H207">
         <v>45</v>
       </c>
     </row>
